--- a/docs/logs/水果.xlsx
+++ b/docs/logs/水果.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/94401c38322e8dd4/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BosonKuo\Git-repos\Smart-Fruit-Probe\docs\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E0EA10D-C394-43F8-8859-75A58FF4CEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256F038E-2A2E-4BC7-A9A9-9922525561EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13155" yWindow="8205" windowWidth="15255" windowHeight="15345" xr2:uid="{5B1079AD-B0F2-47EB-8DAE-C707BBC598EE}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{5B1079AD-B0F2-47EB-8DAE-C707BBC598EE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>西瓜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,18 +64,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>皮厚探針要長\體積重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>質地變化明顯\皮薄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中心空腔大\乳汁干擾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>外觀變化明顯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,7 +84,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>欄1</t>
+    <t>蓮霧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酪梨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水梨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本低\偵測海綿化有經濟價值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傷口易腐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮厚探針要長\體積大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生果過硬\成本高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果種類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本低\成熟前後化學變化劇烈</t>
+  </si>
+  <si>
+    <t>以含油量作為觀測角度\現存生熟判斷不完善</t>
+  </si>
+  <si>
+    <t>共同須注意的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.形狀複雜的水果 校正比較困難(需要製作水果模型時)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中心空腔大\乳汁干擾探針</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>內部均勻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果核大\成本高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形狀彎曲\穿刺後變黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇異果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>質地變化明顯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以纖維和糖分為觀測角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.水分不足的水果要使用頻譜分析(Bode Plot)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮有毛(接觸阻抗)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.表皮有接觸阻抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果核大\汁液黏稠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.小個體水果挑戰性更高(破壞比例高且阻抗變化值過小)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -172,10 +263,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A5BBE91-067B-4A65-9A54-151EA5F91065}" name="表格1" displayName="表格1" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5" xr:uid="{1A5BBE91-067B-4A65-9A54-151EA5F91065}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A5BBE91-067B-4A65-9A54-151EA5F91065}" name="表格1" displayName="表格1" ref="A1:C11" totalsRowShown="0">
+  <autoFilter ref="A1:C11" xr:uid="{1A5BBE91-067B-4A65-9A54-151EA5F91065}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{058DE68E-AC57-487F-86A7-7EB0BE7024AF}" name="欄1"/>
+    <tableColumn id="1" xr3:uid="{058DE68E-AC57-487F-86A7-7EB0BE7024AF}" name="水果種類"/>
     <tableColumn id="2" xr3:uid="{771DB772-B1FC-4EE8-BC8F-FF0DF19F5E6D}" name="優點"/>
     <tableColumn id="3" xr3:uid="{BACC936D-2DD7-4BF7-9F0C-5CAD839AD86F}" name="缺點"/>
   </tableColumns>
@@ -184,9 +275,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -224,7 +315,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -330,7 +421,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -472,7 +563,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -480,21 +571,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201120C9-7694-4ECC-AB31-4E3DC2600067}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="2" max="2" width="40.375" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -511,7 +603,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -519,10 +611,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -530,10 +622,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -541,17 +633,109 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>